--- a/Documentation/Phân tích/Barchart V1.1.xlsx
+++ b/Documentation/Phân tích/Barchart V1.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\CNPM\Documentation\Phân tích\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF95D9F8-A5CD-4E65-B671-330B8A0FC53C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499E7EF7-64CF-42A9-820A-464A55378D95}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t>Quản lí nhân viên</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Báo cáo</t>
   </si>
   <si>
-    <t>Tìm kiếm</t>
-  </si>
-  <si>
     <t>- Hóa đơn</t>
   </si>
   <si>
@@ -93,42 +90,12 @@
     <t>Quản lí đơn hàng</t>
   </si>
   <si>
-    <t>- Thêm, xoá, cập nhật thông tin đơn hàng UI</t>
-  </si>
-  <si>
-    <t>- Thêm, xoá, cập nhật thông tin khách hàng UI</t>
-  </si>
-  <si>
-    <t>- Thêm, xoá, cập nhật thông tin khách hàng BE</t>
-  </si>
-  <si>
-    <t>- Thêm, xoá, cập nhật thông tin đơn hàng BE</t>
-  </si>
-  <si>
     <t>Quản lí chức vụ</t>
   </si>
   <si>
-    <t>- Thêm, xoá, cập nhật thông tin chức vụ UI</t>
-  </si>
-  <si>
-    <t>- Thêm, xoá, cập nhật thông tin chức vụ BE</t>
-  </si>
-  <si>
-    <t>- Thêm, xoá, cập nhật nhân viên UI</t>
-  </si>
-  <si>
-    <t>- Thêm, xoá, cập nhật nhân viên BE</t>
-  </si>
-  <si>
     <t>Quản lí hàng hoá</t>
   </si>
   <si>
-    <t>- Thêm, xoá, cập nhật thông tin hàng hoá UI</t>
-  </si>
-  <si>
-    <t>- Thêm, xoá, cập nhật thông tin hàng hoá BE</t>
-  </si>
-  <si>
     <t>CN</t>
   </si>
   <si>
@@ -144,13 +111,49 @@
     <t>- BE</t>
   </si>
   <si>
-    <t>- Đăng nhập UI</t>
-  </si>
-  <si>
-    <t>- Đăng nhập BE</t>
-  </si>
-  <si>
     <t>Navigation menu</t>
+  </si>
+  <si>
+    <t>- Thêm, xoá, cập nhật, tìm kiếm nhân viên BE</t>
+  </si>
+  <si>
+    <t>- Thêm, xoá, cập nhật, tìm kiếm nhân viên UI</t>
+  </si>
+  <si>
+    <t>- Thêm, xoá, cập nhật, tìm kiếm thông tin khách hàng UI</t>
+  </si>
+  <si>
+    <t>- Thêm, xoá, cập nhật, tìm kiếm thông tin khách hàng BE</t>
+  </si>
+  <si>
+    <t>- Thêm, xoá, cập nhật, tìm kiếm thông tin đơn hàng UI</t>
+  </si>
+  <si>
+    <t>- Thêm, xoá, cập nhật, tìm kiếm thông tin đơn hàng BE</t>
+  </si>
+  <si>
+    <t>- Thêm, xoá, cập nhật, tìm kiếm thông tin chức vụ UI</t>
+  </si>
+  <si>
+    <t>- Thêm, xoá, cập nhật, tìm kiếm thông tin chức vụ BE</t>
+  </si>
+  <si>
+    <t>- Thêm, xoá, cập nhật, tìm kiếm thông tin hàng hoá UI</t>
+  </si>
+  <si>
+    <t>- Thêm, xoá, cập nhật, tìm kiếm thông tin hàng hoá BE</t>
+  </si>
+  <si>
+    <t>- Đăng nhập UI + BE</t>
+  </si>
+  <si>
+    <t>Quản lí lịch làm</t>
+  </si>
+  <si>
+    <t>- Thêm, xoá, cập nhật, tìm kiếm thông tin lịch làm</t>
+  </si>
+  <si>
+    <t>- Bảng lịch làm</t>
   </si>
 </sst>
 </file>
@@ -246,7 +249,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -280,17 +283,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -333,12 +325,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -390,58 +406,63 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -732,13 +753,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AP19" sqref="AP19"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AQ21" sqref="AQ21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="49.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="59.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="8"/>
     <col min="3" max="3" width="9.140625" style="5" customWidth="1"/>
     <col min="4" max="38" width="4.7109375" style="2" customWidth="1"/>
@@ -748,13 +769,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="A1" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
       <c r="F1" s="16"/>
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
@@ -790,282 +811,282 @@
       <c r="AL1" s="16"/>
     </row>
     <row r="2" spans="1:40" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="47"/>
-      <c r="AA2" s="47"/>
-      <c r="AB2" s="47"/>
-      <c r="AC2" s="47"/>
-      <c r="AD2" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE2" s="47"/>
-      <c r="AF2" s="47"/>
-      <c r="AG2" s="47"/>
-      <c r="AH2" s="47"/>
-      <c r="AI2" s="47"/>
-      <c r="AJ2" s="47"/>
-      <c r="AK2" s="47"/>
-      <c r="AL2" s="47"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="38"/>
+      <c r="AL2" s="38"/>
     </row>
     <row r="3" spans="1:40" s="7" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="48">
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="35">
         <v>7</v>
       </c>
-      <c r="E3" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="48">
+      <c r="E3" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="35">
         <v>2</v>
       </c>
-      <c r="G3" s="48">
+      <c r="G3" s="35">
         <v>3</v>
       </c>
-      <c r="H3" s="48">
+      <c r="H3" s="35">
         <v>4</v>
       </c>
-      <c r="I3" s="48">
+      <c r="I3" s="35">
         <v>5</v>
       </c>
-      <c r="J3" s="48">
+      <c r="J3" s="35">
         <v>6</v>
       </c>
-      <c r="K3" s="48">
+      <c r="K3" s="35">
         <v>7</v>
       </c>
-      <c r="L3" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" s="48">
+      <c r="L3" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="35">
         <v>2</v>
       </c>
-      <c r="N3" s="48">
+      <c r="N3" s="35">
         <v>3</v>
       </c>
-      <c r="O3" s="48">
+      <c r="O3" s="35">
         <v>4</v>
       </c>
-      <c r="P3" s="48">
+      <c r="P3" s="35">
         <v>5</v>
       </c>
-      <c r="Q3" s="48">
+      <c r="Q3" s="35">
         <v>6</v>
       </c>
-      <c r="R3" s="48">
+      <c r="R3" s="35">
         <v>7</v>
       </c>
-      <c r="S3" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="T3" s="48">
+      <c r="S3" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="T3" s="35">
         <v>2</v>
       </c>
-      <c r="U3" s="48">
+      <c r="U3" s="35">
         <v>3</v>
       </c>
-      <c r="V3" s="48">
+      <c r="V3" s="35">
         <v>4</v>
       </c>
-      <c r="W3" s="48">
+      <c r="W3" s="35">
         <v>5</v>
       </c>
-      <c r="X3" s="48">
+      <c r="X3" s="35">
         <v>6</v>
       </c>
-      <c r="Y3" s="48">
+      <c r="Y3" s="35">
         <v>7</v>
       </c>
-      <c r="Z3" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA3" s="48">
+      <c r="Z3" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA3" s="35">
         <v>2</v>
       </c>
-      <c r="AB3" s="48">
+      <c r="AB3" s="35">
         <v>3</v>
       </c>
-      <c r="AC3" s="48">
+      <c r="AC3" s="35">
         <v>4</v>
       </c>
-      <c r="AD3" s="48">
+      <c r="AD3" s="35">
         <v>5</v>
       </c>
-      <c r="AE3" s="48">
+      <c r="AE3" s="35">
         <v>6</v>
       </c>
-      <c r="AF3" s="48">
+      <c r="AF3" s="35">
         <v>7</v>
       </c>
-      <c r="AG3" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH3" s="48">
+      <c r="AG3" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH3" s="35">
         <v>2</v>
       </c>
-      <c r="AI3" s="48">
+      <c r="AI3" s="35">
         <v>3</v>
       </c>
-      <c r="AJ3" s="48">
+      <c r="AJ3" s="35">
         <v>4</v>
       </c>
-      <c r="AK3" s="48">
+      <c r="AK3" s="35">
         <v>5</v>
       </c>
-      <c r="AL3" s="48">
+      <c r="AL3" s="35">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:40" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="B4" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="D4" s="42">
+        <v>6</v>
+      </c>
+      <c r="E4" s="42">
+        <v>7</v>
+      </c>
+      <c r="F4" s="42">
+        <v>8</v>
+      </c>
+      <c r="G4" s="42">
+        <v>9</v>
+      </c>
+      <c r="H4" s="42">
+        <v>10</v>
+      </c>
+      <c r="I4" s="42">
+        <v>11</v>
+      </c>
+      <c r="J4" s="42">
+        <v>12</v>
+      </c>
+      <c r="K4" s="42">
+        <v>13</v>
+      </c>
+      <c r="L4" s="42">
+        <v>14</v>
+      </c>
+      <c r="M4" s="42">
+        <v>15</v>
+      </c>
+      <c r="N4" s="42">
+        <v>16</v>
+      </c>
+      <c r="O4" s="42">
+        <v>17</v>
+      </c>
+      <c r="P4" s="42">
+        <v>18</v>
+      </c>
+      <c r="Q4" s="42">
         <v>19</v>
       </c>
-      <c r="D4" s="36">
+      <c r="R4" s="42">
+        <v>20</v>
+      </c>
+      <c r="S4" s="42">
+        <v>21</v>
+      </c>
+      <c r="T4" s="42">
+        <v>22</v>
+      </c>
+      <c r="U4" s="42">
+        <v>23</v>
+      </c>
+      <c r="V4" s="42">
+        <v>24</v>
+      </c>
+      <c r="W4" s="42">
+        <v>25</v>
+      </c>
+      <c r="X4" s="42">
+        <v>26</v>
+      </c>
+      <c r="Y4" s="42">
+        <v>27</v>
+      </c>
+      <c r="Z4" s="42">
+        <v>28</v>
+      </c>
+      <c r="AA4" s="42">
+        <v>29</v>
+      </c>
+      <c r="AB4" s="42">
+        <v>30</v>
+      </c>
+      <c r="AC4" s="42">
+        <v>31</v>
+      </c>
+      <c r="AD4" s="43">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="43">
+        <v>2</v>
+      </c>
+      <c r="AF4" s="43">
+        <v>3</v>
+      </c>
+      <c r="AG4" s="43">
+        <v>4</v>
+      </c>
+      <c r="AH4" s="43">
+        <v>5</v>
+      </c>
+      <c r="AI4" s="42">
         <v>6</v>
       </c>
-      <c r="E4" s="36">
+      <c r="AJ4" s="42">
         <v>7</v>
       </c>
-      <c r="F4" s="36">
+      <c r="AK4" s="42">
         <v>8</v>
       </c>
-      <c r="G4" s="36">
-        <v>9</v>
-      </c>
-      <c r="H4" s="36">
-        <v>10</v>
-      </c>
-      <c r="I4" s="36">
-        <v>11</v>
-      </c>
-      <c r="J4" s="36">
-        <v>12</v>
-      </c>
-      <c r="K4" s="36">
-        <v>13</v>
-      </c>
-      <c r="L4" s="36">
-        <v>14</v>
-      </c>
-      <c r="M4" s="36">
-        <v>15</v>
-      </c>
-      <c r="N4" s="36">
-        <v>16</v>
-      </c>
-      <c r="O4" s="36">
-        <v>17</v>
-      </c>
-      <c r="P4" s="36">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="36">
-        <v>19</v>
-      </c>
-      <c r="R4" s="36">
-        <v>20</v>
-      </c>
-      <c r="S4" s="36">
-        <v>21</v>
-      </c>
-      <c r="T4" s="36">
-        <v>22</v>
-      </c>
-      <c r="U4" s="36">
-        <v>23</v>
-      </c>
-      <c r="V4" s="36">
-        <v>24</v>
-      </c>
-      <c r="W4" s="36">
-        <v>25</v>
-      </c>
-      <c r="X4" s="36">
-        <v>26</v>
-      </c>
-      <c r="Y4" s="36">
-        <v>27</v>
-      </c>
-      <c r="Z4" s="36">
-        <v>28</v>
-      </c>
-      <c r="AA4" s="36">
-        <v>29</v>
-      </c>
-      <c r="AB4" s="36">
-        <v>30</v>
-      </c>
-      <c r="AC4" s="36">
-        <v>31</v>
-      </c>
-      <c r="AD4" s="37">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="37">
-        <v>2</v>
-      </c>
-      <c r="AF4" s="37">
-        <v>3</v>
-      </c>
-      <c r="AG4" s="37">
-        <v>4</v>
-      </c>
-      <c r="AH4" s="37">
-        <v>5</v>
-      </c>
-      <c r="AI4" s="36">
-        <v>6</v>
-      </c>
-      <c r="AJ4" s="36">
-        <v>7</v>
-      </c>
-      <c r="AK4" s="36">
-        <v>8</v>
-      </c>
-      <c r="AL4" s="25">
+      <c r="AL4" s="44">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:40" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="22">
-        <f>SUM(B7:B41)</f>
-        <v>159.69999999999999</v>
-      </c>
-      <c r="C5" s="22">
-        <f xml:space="preserve"> COUNTIF(C7:C42, 100)/ COUNT(C7:C42) * 100</f>
-        <v>84.615384615384613</v>
+        <f>SUM(B7:B37)</f>
+        <v>157.69999999999999</v>
+      </c>
+      <c r="C5" s="41">
+        <f xml:space="preserve"> COUNTIF(C7:C39, 100)/ COUNT(C7:C39) * 100</f>
+        <v>85</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
@@ -1101,18 +1122,18 @@
       <c r="AI5" s="16"/>
       <c r="AJ5" s="16"/>
       <c r="AK5" s="16"/>
-      <c r="AL5" s="38"/>
-      <c r="AM5" s="26"/>
+      <c r="AL5" s="30"/>
+      <c r="AM5" s="25"/>
       <c r="AN5" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:40" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
+      <c r="A6" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
       <c r="F6" s="17"/>
@@ -1147,15 +1168,15 @@
       <c r="AI6" s="16"/>
       <c r="AJ6" s="16"/>
       <c r="AK6" s="16"/>
-      <c r="AL6" s="38"/>
-      <c r="AM6" s="27"/>
+      <c r="AL6" s="30"/>
+      <c r="AM6" s="26"/>
       <c r="AN6" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:40" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="22">
         <v>21</v>
@@ -1197,18 +1218,18 @@
       <c r="AI7" s="16"/>
       <c r="AJ7" s="16"/>
       <c r="AK7" s="16"/>
-      <c r="AL7" s="38"/>
-      <c r="AM7" s="28"/>
+      <c r="AL7" s="30"/>
+      <c r="AM7" s="27"/>
       <c r="AN7" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:40" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
@@ -1243,15 +1264,15 @@
       <c r="AI8" s="16"/>
       <c r="AJ8" s="16"/>
       <c r="AK8" s="16"/>
-      <c r="AL8" s="38"/>
-      <c r="AM8" s="29"/>
+      <c r="AL8" s="30"/>
+      <c r="AM8" s="28"/>
       <c r="AN8" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:40" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" s="22">
         <v>5</v>
@@ -1293,15 +1314,15 @@
       <c r="AI9" s="16"/>
       <c r="AJ9" s="16"/>
       <c r="AK9" s="16"/>
-      <c r="AL9" s="38"/>
-      <c r="AM9" s="30"/>
+      <c r="AL9" s="30"/>
+      <c r="AM9" s="29"/>
       <c r="AN9" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:40" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" s="22">
         <v>30</v>
@@ -1343,14 +1364,14 @@
       <c r="AI10" s="16"/>
       <c r="AJ10" s="16"/>
       <c r="AK10" s="16"/>
-      <c r="AL10" s="38"/>
+      <c r="AL10" s="30"/>
     </row>
     <row r="11" spans="1:40" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
+      <c r="A11" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
@@ -1385,11 +1406,11 @@
       <c r="AI11" s="16"/>
       <c r="AJ11" s="16"/>
       <c r="AK11" s="16"/>
-      <c r="AL11" s="38"/>
+      <c r="AL11" s="30"/>
     </row>
     <row r="12" spans="1:40" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B12" s="22">
         <f>4.7</f>
@@ -1405,8 +1426,6 @@
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
       <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
       <c r="M12" s="17"/>
       <c r="N12" s="17"/>
       <c r="O12" s="17"/>
@@ -1432,11 +1451,11 @@
       <c r="AI12" s="16"/>
       <c r="AJ12" s="16"/>
       <c r="AK12" s="16"/>
-      <c r="AL12" s="38"/>
+      <c r="AL12" s="30"/>
     </row>
     <row r="13" spans="1:40" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B13" s="22">
         <v>24</v>
@@ -1451,8 +1470,8 @@
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="17"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
       <c r="M13" s="17"/>
       <c r="N13" s="17"/>
       <c r="O13" s="17"/>
@@ -1478,14 +1497,14 @@
       <c r="AI13" s="16"/>
       <c r="AJ13" s="16"/>
       <c r="AK13" s="16"/>
-      <c r="AL13" s="38"/>
+      <c r="AL13" s="30"/>
     </row>
     <row r="14" spans="1:40" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
+        <v>20</v>
+      </c>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
@@ -1520,11 +1539,11 @@
       <c r="AI14" s="16"/>
       <c r="AJ14" s="16"/>
       <c r="AK14" s="16"/>
-      <c r="AL14" s="38"/>
+      <c r="AL14" s="30"/>
     </row>
     <row r="15" spans="1:40" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B15" s="22">
         <v>30</v>
@@ -1566,11 +1585,11 @@
       <c r="AI15" s="16"/>
       <c r="AJ15" s="16"/>
       <c r="AK15" s="16"/>
-      <c r="AL15" s="38"/>
+      <c r="AL15" s="30"/>
     </row>
     <row r="16" spans="1:40" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="15"/>
@@ -1608,14 +1627,14 @@
       <c r="AI16" s="16"/>
       <c r="AJ16" s="16"/>
       <c r="AK16" s="16"/>
-      <c r="AL16" s="38"/>
+      <c r="AL16" s="30"/>
     </row>
     <row r="17" spans="1:38" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
+      <c r="A17" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
@@ -1650,11 +1669,11 @@
       <c r="AI17" s="16"/>
       <c r="AJ17" s="16"/>
       <c r="AK17" s="16"/>
-      <c r="AL17" s="38"/>
+      <c r="AL17" s="30"/>
     </row>
     <row r="18" spans="1:38" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B18" s="22">
         <v>3</v>
@@ -1696,11 +1715,11 @@
       <c r="AI18" s="16"/>
       <c r="AJ18" s="16"/>
       <c r="AK18" s="16"/>
-      <c r="AL18" s="38"/>
+      <c r="AL18" s="30"/>
     </row>
     <row r="19" spans="1:38" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B19" s="22">
         <v>5</v>
@@ -1742,14 +1761,14 @@
       <c r="AI19" s="16"/>
       <c r="AJ19" s="16"/>
       <c r="AK19" s="16"/>
-      <c r="AL19" s="38"/>
+      <c r="AL19" s="30"/>
     </row>
     <row r="20" spans="1:38" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
+      <c r="A20" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
@@ -1784,11 +1803,11 @@
       <c r="AI20" s="16"/>
       <c r="AJ20" s="16"/>
       <c r="AK20" s="16"/>
-      <c r="AL20" s="38"/>
+      <c r="AL20" s="30"/>
     </row>
     <row r="21" spans="1:38" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B21" s="22">
         <v>20</v>
@@ -1830,11 +1849,11 @@
       <c r="AI21" s="16"/>
       <c r="AJ21" s="16"/>
       <c r="AK21" s="16"/>
-      <c r="AL21" s="38"/>
+      <c r="AL21" s="30"/>
     </row>
     <row r="22" spans="1:38" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B22" s="22">
         <v>8</v>
@@ -1876,14 +1895,14 @@
       <c r="AI22" s="16"/>
       <c r="AJ22" s="16"/>
       <c r="AK22" s="16"/>
-      <c r="AL22" s="38"/>
+      <c r="AL22" s="30"/>
     </row>
     <row r="23" spans="1:38" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
@@ -1918,7 +1937,7 @@
       <c r="AI23" s="16"/>
       <c r="AJ23" s="16"/>
       <c r="AK23" s="16"/>
-      <c r="AL23" s="38"/>
+      <c r="AL23" s="30"/>
     </row>
     <row r="24" spans="1:38" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
@@ -1964,7 +1983,7 @@
       <c r="AI24" s="16"/>
       <c r="AJ24" s="16"/>
       <c r="AK24" s="16"/>
-      <c r="AL24" s="38"/>
+      <c r="AL24" s="30"/>
     </row>
     <row r="25" spans="1:38" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
@@ -2010,7 +2029,7 @@
       <c r="AI25" s="16"/>
       <c r="AJ25" s="16"/>
       <c r="AK25" s="16"/>
-      <c r="AL25" s="38"/>
+      <c r="AL25" s="30"/>
     </row>
     <row r="26" spans="1:38" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
@@ -2056,11 +2075,11 @@
       <c r="AI26" s="16"/>
       <c r="AJ26" s="16"/>
       <c r="AK26" s="16"/>
-      <c r="AL26" s="38"/>
-    </row>
-    <row r="27" spans="1:38" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL26" s="30"/>
+    </row>
+    <row r="27" spans="1:38" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B27" s="22">
         <v>1</v>
@@ -2075,8 +2094,8 @@
       <c r="H27" s="17"/>
       <c r="I27" s="24"/>
       <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
+      <c r="K27"/>
+      <c r="L27"/>
       <c r="M27" s="17"/>
       <c r="N27" s="17"/>
       <c r="O27" s="17"/>
@@ -2102,11 +2121,11 @@
       <c r="AI27" s="16"/>
       <c r="AJ27" s="16"/>
       <c r="AK27" s="16"/>
-      <c r="AL27" s="38"/>
+      <c r="AL27" s="30"/>
     </row>
     <row r="28" spans="1:38" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B28" s="22">
         <v>1</v>
@@ -2148,11 +2167,11 @@
       <c r="AI28" s="16"/>
       <c r="AJ28" s="16"/>
       <c r="AK28" s="16"/>
-      <c r="AL28" s="38"/>
+      <c r="AL28" s="30"/>
     </row>
     <row r="29" spans="1:38" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B29" s="22">
         <v>1</v>
@@ -2194,14 +2213,14 @@
       <c r="AI29" s="16"/>
       <c r="AJ29" s="16"/>
       <c r="AK29" s="16"/>
-      <c r="AL29" s="38"/>
+      <c r="AL29" s="30"/>
     </row>
     <row r="30" spans="1:38" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="45" t="s">
+      <c r="A30" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
       <c r="D30" s="17"/>
       <c r="E30" s="17"/>
       <c r="F30" s="17"/>
@@ -2236,11 +2255,11 @@
       <c r="AI30" s="16"/>
       <c r="AJ30" s="16"/>
       <c r="AK30" s="16"/>
-      <c r="AL30" s="38"/>
+      <c r="AL30" s="30"/>
     </row>
     <row r="31" spans="1:38" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B31" s="22">
         <v>0</v>
@@ -2282,11 +2301,11 @@
       <c r="AI31" s="16"/>
       <c r="AJ31" s="16"/>
       <c r="AK31" s="16"/>
-      <c r="AL31" s="38"/>
+      <c r="AL31" s="30"/>
     </row>
     <row r="32" spans="1:38" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B32" s="22">
         <v>0</v>
@@ -2328,159 +2347,49 @@
       <c r="AI32" s="16"/>
       <c r="AJ32" s="16"/>
       <c r="AK32" s="16"/>
-      <c r="AL32" s="38"/>
+      <c r="AL32" s="30"/>
     </row>
     <row r="33" spans="1:38" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" s="45"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="16"/>
-      <c r="R33" s="16"/>
-      <c r="S33" s="16"/>
-      <c r="T33" s="16"/>
-      <c r="U33" s="16"/>
-      <c r="V33" s="16"/>
-      <c r="W33" s="16"/>
-      <c r="X33" s="16"/>
-      <c r="Y33" s="16"/>
-      <c r="Z33" s="16"/>
-      <c r="AA33" s="16"/>
-      <c r="AB33" s="16"/>
-      <c r="AC33" s="16"/>
-      <c r="AD33" s="16"/>
-      <c r="AE33" s="16"/>
-      <c r="AF33" s="16"/>
-      <c r="AG33" s="16"/>
-      <c r="AH33" s="16"/>
-      <c r="AI33" s="16"/>
-      <c r="AJ33" s="16"/>
-      <c r="AK33" s="16"/>
-      <c r="AL33" s="38"/>
+      <c r="A33" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="AL33" s="30"/>
     </row>
     <row r="34" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B34" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="C34" s="12">
-        <v>100</v>
-      </c>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="16"/>
-      <c r="R34" s="16"/>
-      <c r="S34" s="16"/>
-      <c r="T34" s="16"/>
-      <c r="U34" s="16"/>
-      <c r="V34" s="16"/>
-      <c r="W34" s="16"/>
-      <c r="X34" s="16"/>
-      <c r="Y34" s="16"/>
-      <c r="Z34" s="16"/>
-      <c r="AA34" s="16"/>
-      <c r="AB34" s="16"/>
-      <c r="AC34" s="16"/>
-      <c r="AD34" s="16"/>
-      <c r="AE34" s="16"/>
-      <c r="AF34" s="16"/>
-      <c r="AG34" s="16"/>
-      <c r="AH34" s="16"/>
-      <c r="AI34" s="16"/>
-      <c r="AJ34" s="16"/>
-      <c r="AK34" s="16"/>
-      <c r="AL34" s="38"/>
+        <v>41</v>
+      </c>
+      <c r="B34" s="34">
+        <v>0</v>
+      </c>
+      <c r="C34" s="50">
+        <v>0</v>
+      </c>
+      <c r="AL34" s="30"/>
     </row>
     <row r="35" spans="1:38" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B35" s="22">
-        <v>0</v>
-      </c>
-      <c r="C35" s="12">
-        <v>0</v>
-      </c>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="16"/>
-      <c r="Q35" s="16"/>
-      <c r="R35" s="16"/>
-      <c r="S35" s="16"/>
-      <c r="T35" s="16"/>
-      <c r="U35" s="16"/>
-      <c r="V35" s="16"/>
-      <c r="W35" s="16"/>
-      <c r="X35" s="16"/>
-      <c r="Y35" s="16"/>
-      <c r="Z35" s="16"/>
-      <c r="AA35" s="16"/>
-      <c r="AB35" s="16"/>
-      <c r="AC35" s="16"/>
-      <c r="AD35" s="16"/>
-      <c r="AE35" s="16"/>
-      <c r="AF35" s="16"/>
-      <c r="AG35" s="16"/>
-      <c r="AH35" s="16"/>
-      <c r="AI35" s="16"/>
-      <c r="AJ35" s="16"/>
-      <c r="AK35" s="16"/>
-      <c r="AL35" s="38"/>
+        <v>42</v>
+      </c>
+      <c r="B35" s="34"/>
+      <c r="C35" s="50"/>
+      <c r="AL35" s="30"/>
     </row>
     <row r="36" spans="1:38" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="C36" s="12">
-        <v>100</v>
-      </c>
+      <c r="A36" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
       <c r="D36" s="17"/>
       <c r="E36" s="17"/>
       <c r="F36" s="17"/>
       <c r="G36" s="17"/>
       <c r="H36" s="17"/>
       <c r="I36" s="17"/>
-      <c r="J36" s="19"/>
+      <c r="J36" s="17"/>
       <c r="K36" s="17"/>
       <c r="L36" s="17"/>
       <c r="M36" s="17"/>
@@ -2508,279 +2417,133 @@
       <c r="AI36" s="16"/>
       <c r="AJ36" s="16"/>
       <c r="AK36" s="16"/>
-      <c r="AL36" s="38"/>
+      <c r="AL36" s="30"/>
     </row>
     <row r="37" spans="1:38" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B37" s="22">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C37" s="12">
         <v>100</v>
       </c>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="16"/>
-      <c r="Q37" s="16"/>
-      <c r="R37" s="16"/>
-      <c r="S37" s="19"/>
-      <c r="T37" s="16"/>
-      <c r="U37" s="16"/>
-      <c r="V37" s="16"/>
-      <c r="W37" s="16"/>
-      <c r="X37" s="16"/>
-      <c r="Y37" s="16"/>
-      <c r="Z37" s="16"/>
-      <c r="AA37" s="16"/>
-      <c r="AB37" s="16"/>
-      <c r="AC37" s="16"/>
-      <c r="AD37" s="16"/>
-      <c r="AE37" s="16"/>
-      <c r="AF37" s="16"/>
-      <c r="AG37" s="16"/>
-      <c r="AH37" s="16"/>
-      <c r="AI37" s="16"/>
-      <c r="AJ37" s="16"/>
-      <c r="AK37" s="16"/>
-      <c r="AL37" s="38"/>
-    </row>
-    <row r="38" spans="1:38" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B38" s="22">
-        <v>0</v>
-      </c>
-      <c r="C38" s="12">
-        <v>0</v>
-      </c>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="16"/>
-      <c r="Q38" s="16"/>
-      <c r="R38" s="16"/>
-      <c r="S38" s="16"/>
-      <c r="T38" s="16"/>
-      <c r="U38" s="16"/>
-      <c r="V38" s="16"/>
-      <c r="W38" s="16"/>
-      <c r="X38" s="16"/>
-      <c r="Y38" s="16"/>
-      <c r="Z38" s="16"/>
-      <c r="AA38" s="16"/>
-      <c r="AB38" s="16"/>
-      <c r="AC38" s="16"/>
-      <c r="AD38" s="16"/>
-      <c r="AE38" s="16"/>
-      <c r="AF38" s="16"/>
-      <c r="AG38" s="16"/>
-      <c r="AH38" s="16"/>
-      <c r="AI38" s="16"/>
-      <c r="AJ38" s="16"/>
-      <c r="AK38" s="16"/>
-      <c r="AL38" s="38"/>
-    </row>
-    <row r="39" spans="1:38" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B39" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="C39" s="12">
-        <v>100</v>
-      </c>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="19"/>
-      <c r="Q39" s="16"/>
-      <c r="R39" s="16"/>
-      <c r="S39" s="16"/>
-      <c r="T39" s="16"/>
-      <c r="U39" s="16"/>
-      <c r="V39" s="16"/>
-      <c r="W39" s="16"/>
-      <c r="X39" s="16"/>
-      <c r="Y39" s="16"/>
-      <c r="Z39" s="16"/>
-      <c r="AA39" s="16"/>
-      <c r="AB39" s="16"/>
-      <c r="AC39" s="16"/>
-      <c r="AD39" s="16"/>
-      <c r="AE39" s="16"/>
-      <c r="AF39" s="16"/>
-      <c r="AG39" s="16"/>
-      <c r="AH39" s="16"/>
-      <c r="AI39" s="16"/>
-      <c r="AJ39" s="16"/>
-      <c r="AK39" s="16"/>
-      <c r="AL39" s="38"/>
-    </row>
-    <row r="40" spans="1:38" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="B40" s="45"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="16"/>
-      <c r="Q40" s="16"/>
-      <c r="R40" s="16"/>
-      <c r="S40" s="16"/>
-      <c r="T40" s="16"/>
-      <c r="U40" s="16"/>
-      <c r="V40" s="16"/>
-      <c r="W40" s="16"/>
-      <c r="X40" s="16"/>
-      <c r="Y40" s="16"/>
-      <c r="Z40" s="16"/>
-      <c r="AA40" s="16"/>
-      <c r="AB40" s="16"/>
-      <c r="AC40" s="16"/>
-      <c r="AD40" s="16"/>
-      <c r="AE40" s="16"/>
-      <c r="AF40" s="16"/>
-      <c r="AG40" s="16"/>
-      <c r="AH40" s="16"/>
-      <c r="AI40" s="16"/>
-      <c r="AJ40" s="16"/>
-      <c r="AK40" s="16"/>
-      <c r="AL40" s="38"/>
-    </row>
-    <row r="41" spans="1:38" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" s="22">
-        <v>1</v>
-      </c>
-      <c r="C41" s="12">
-        <v>100</v>
-      </c>
-      <c r="D41" s="19"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="16"/>
-      <c r="Q41" s="16"/>
-      <c r="R41" s="16"/>
-      <c r="S41" s="16"/>
-      <c r="T41" s="16"/>
-      <c r="U41" s="16"/>
-      <c r="V41" s="16"/>
-      <c r="W41" s="16"/>
-      <c r="X41" s="16"/>
-      <c r="Y41" s="16"/>
-      <c r="Z41" s="16"/>
-      <c r="AA41" s="16"/>
-      <c r="AB41" s="16"/>
-      <c r="AC41" s="16"/>
-      <c r="AD41" s="16"/>
-      <c r="AE41" s="16"/>
-      <c r="AF41" s="16"/>
-      <c r="AG41" s="16"/>
-      <c r="AH41" s="16"/>
-      <c r="AI41" s="16"/>
-      <c r="AJ41" s="16"/>
-      <c r="AK41" s="16"/>
-      <c r="AL41" s="38"/>
-    </row>
-    <row r="42" spans="1:38" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" s="22">
-        <v>1</v>
-      </c>
-      <c r="C42" s="12">
-        <v>100</v>
-      </c>
-      <c r="D42" s="39"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="40"/>
-      <c r="G42" s="40"/>
-      <c r="H42" s="40"/>
-      <c r="I42" s="40"/>
-      <c r="J42" s="40"/>
-      <c r="K42" s="40"/>
-      <c r="L42" s="40"/>
-      <c r="M42" s="41"/>
-      <c r="N42" s="41"/>
-      <c r="O42" s="41"/>
-      <c r="P42" s="41"/>
-      <c r="Q42" s="42"/>
-      <c r="R42" s="41"/>
-      <c r="S42" s="41"/>
-      <c r="T42" s="41"/>
-      <c r="U42" s="41"/>
-      <c r="V42" s="41"/>
-      <c r="W42" s="41"/>
-      <c r="X42" s="41"/>
-      <c r="Y42" s="41"/>
-      <c r="Z42" s="41"/>
-      <c r="AA42" s="41"/>
-      <c r="AB42" s="41"/>
-      <c r="AC42" s="41"/>
-      <c r="AD42" s="41"/>
-      <c r="AE42" s="41"/>
-      <c r="AF42" s="41"/>
-      <c r="AG42" s="41"/>
-      <c r="AH42" s="41"/>
-      <c r="AI42" s="41"/>
-      <c r="AJ42" s="41"/>
-      <c r="AK42" s="41"/>
-      <c r="AL42" s="43"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="32"/>
+      <c r="Q37" s="28"/>
+      <c r="R37" s="32"/>
+      <c r="S37" s="32"/>
+      <c r="T37" s="32"/>
+      <c r="U37" s="32"/>
+      <c r="V37" s="32"/>
+      <c r="W37" s="32"/>
+      <c r="X37" s="32"/>
+      <c r="Y37" s="32"/>
+      <c r="Z37" s="32"/>
+      <c r="AA37" s="32"/>
+      <c r="AB37" s="32"/>
+      <c r="AC37" s="32"/>
+      <c r="AD37" s="32"/>
+      <c r="AE37" s="32"/>
+      <c r="AF37" s="32"/>
+      <c r="AG37" s="32"/>
+      <c r="AH37" s="32"/>
+      <c r="AI37" s="32"/>
+      <c r="AJ37" s="32"/>
+      <c r="AK37" s="32"/>
+      <c r="AL37" s="33"/>
+    </row>
+    <row r="38" spans="1:38" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38"/>
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
+      <c r="Q38"/>
+      <c r="R38"/>
+      <c r="S38"/>
+      <c r="T38"/>
+      <c r="U38"/>
+      <c r="V38"/>
+      <c r="W38"/>
+      <c r="X38"/>
+      <c r="Y38"/>
+      <c r="Z38"/>
+      <c r="AA38"/>
+      <c r="AB38"/>
+      <c r="AC38"/>
+      <c r="AD38"/>
+      <c r="AE38"/>
+      <c r="AF38"/>
+      <c r="AG38"/>
+      <c r="AH38"/>
+      <c r="AI38"/>
+      <c r="AJ38"/>
+      <c r="AK38"/>
+      <c r="AL38"/>
+    </row>
+    <row r="39" spans="1:38" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39"/>
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39"/>
+      <c r="P39"/>
+      <c r="Q39"/>
+      <c r="R39"/>
+      <c r="S39"/>
+      <c r="T39"/>
+      <c r="U39"/>
+      <c r="V39"/>
+      <c r="W39"/>
+      <c r="X39"/>
+      <c r="Y39"/>
+      <c r="Z39"/>
+      <c r="AA39"/>
+      <c r="AB39"/>
+      <c r="AC39"/>
+      <c r="AD39"/>
+      <c r="AE39"/>
+      <c r="AF39"/>
+      <c r="AG39"/>
+      <c r="AH39"/>
+      <c r="AI39"/>
+      <c r="AJ39"/>
+      <c r="AK39"/>
+      <c r="AL39"/>
     </row>
     <row r="43" spans="1:38" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C43" s="6"/>
@@ -2968,20 +2731,21 @@
       <c r="C72" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A2:C3"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A20:C20"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="AD2:AL2"/>
     <mergeCell ref="D2:AC2"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A11:C11"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Phân tích/Barchart V1.1.xlsx
+++ b/Documentation/Phân tích/Barchart V1.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\CNPM\Documentation\Phân tích\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499E7EF7-64CF-42A9-820A-464A55378D95}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41412024-3295-49DB-A243-3748DEFDCB03}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -424,18 +424,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -447,22 +435,34 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -754,7 +754,7 @@
   <dimension ref="A1:AN72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AQ21" sqref="AQ21"/>
+      <selection activeCell="U25" sqref="U25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -769,13 +769,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
       <c r="F1" s="16"/>
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
@@ -811,53 +811,53 @@
       <c r="AL1" s="16"/>
     </row>
     <row r="2" spans="1:40" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="38" t="s">
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38" t="s">
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="50"/>
+      <c r="AB2" s="50"/>
+      <c r="AC2" s="50"/>
+      <c r="AD2" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="38"/>
-      <c r="AI2" s="38"/>
-      <c r="AJ2" s="38"/>
-      <c r="AK2" s="38"/>
-      <c r="AL2" s="38"/>
+      <c r="AE2" s="50"/>
+      <c r="AF2" s="50"/>
+      <c r="AG2" s="50"/>
+      <c r="AH2" s="50"/>
+      <c r="AI2" s="50"/>
+      <c r="AJ2" s="50"/>
+      <c r="AK2" s="50"/>
+      <c r="AL2" s="50"/>
     </row>
     <row r="3" spans="1:40" s="7" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="47"/>
       <c r="D3" s="35">
         <v>7</v>
       </c>
@@ -972,109 +972,109 @@
       <c r="C4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="42">
+      <c r="D4" s="38">
         <v>6</v>
       </c>
-      <c r="E4" s="42">
+      <c r="E4" s="38">
         <v>7</v>
       </c>
-      <c r="F4" s="42">
+      <c r="F4" s="38">
         <v>8</v>
       </c>
-      <c r="G4" s="42">
+      <c r="G4" s="38">
         <v>9</v>
       </c>
-      <c r="H4" s="42">
+      <c r="H4" s="38">
         <v>10</v>
       </c>
-      <c r="I4" s="42">
+      <c r="I4" s="38">
         <v>11</v>
       </c>
-      <c r="J4" s="42">
+      <c r="J4" s="38">
         <v>12</v>
       </c>
-      <c r="K4" s="42">
+      <c r="K4" s="38">
         <v>13</v>
       </c>
-      <c r="L4" s="42">
+      <c r="L4" s="38">
         <v>14</v>
       </c>
-      <c r="M4" s="42">
+      <c r="M4" s="38">
         <v>15</v>
       </c>
-      <c r="N4" s="42">
+      <c r="N4" s="38">
         <v>16</v>
       </c>
-      <c r="O4" s="42">
+      <c r="O4" s="38">
         <v>17</v>
       </c>
-      <c r="P4" s="42">
+      <c r="P4" s="38">
         <v>18</v>
       </c>
-      <c r="Q4" s="42">
+      <c r="Q4" s="38">
         <v>19</v>
       </c>
-      <c r="R4" s="42">
+      <c r="R4" s="38">
         <v>20</v>
       </c>
-      <c r="S4" s="42">
+      <c r="S4" s="38">
         <v>21</v>
       </c>
-      <c r="T4" s="42">
+      <c r="T4" s="38">
         <v>22</v>
       </c>
-      <c r="U4" s="42">
+      <c r="U4" s="38">
         <v>23</v>
       </c>
-      <c r="V4" s="42">
+      <c r="V4" s="38">
         <v>24</v>
       </c>
-      <c r="W4" s="42">
+      <c r="W4" s="38">
         <v>25</v>
       </c>
-      <c r="X4" s="42">
+      <c r="X4" s="38">
         <v>26</v>
       </c>
-      <c r="Y4" s="42">
+      <c r="Y4" s="38">
         <v>27</v>
       </c>
-      <c r="Z4" s="42">
+      <c r="Z4" s="38">
         <v>28</v>
       </c>
-      <c r="AA4" s="42">
+      <c r="AA4" s="38">
         <v>29</v>
       </c>
-      <c r="AB4" s="42">
+      <c r="AB4" s="38">
         <v>30</v>
       </c>
-      <c r="AC4" s="42">
+      <c r="AC4" s="38">
         <v>31</v>
       </c>
-      <c r="AD4" s="43">
+      <c r="AD4" s="39">
         <v>1</v>
       </c>
-      <c r="AE4" s="43">
+      <c r="AE4" s="39">
         <v>2</v>
       </c>
-      <c r="AF4" s="43">
+      <c r="AF4" s="39">
         <v>3</v>
       </c>
-      <c r="AG4" s="43">
+      <c r="AG4" s="39">
         <v>4</v>
       </c>
-      <c r="AH4" s="43">
+      <c r="AH4" s="39">
         <v>5</v>
       </c>
-      <c r="AI4" s="42">
+      <c r="AI4" s="38">
         <v>6</v>
       </c>
-      <c r="AJ4" s="42">
+      <c r="AJ4" s="38">
         <v>7</v>
       </c>
-      <c r="AK4" s="42">
+      <c r="AK4" s="38">
         <v>8</v>
       </c>
-      <c r="AL4" s="44">
+      <c r="AL4" s="40">
         <v>9</v>
       </c>
     </row>
@@ -1084,9 +1084,9 @@
         <f>SUM(B7:B37)</f>
         <v>157.69999999999999</v>
       </c>
-      <c r="C5" s="41">
+      <c r="C5" s="37">
         <f xml:space="preserve"> COUNTIF(C7:C39, 100)/ COUNT(C7:C39) * 100</f>
-        <v>85</v>
+        <v>80.952380952380949</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
@@ -1129,11 +1129,11 @@
       </c>
     </row>
     <row r="6" spans="1:40" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
       <c r="F6" s="17"/>
@@ -1225,11 +1225,11 @@
       </c>
     </row>
     <row r="8" spans="1:40" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
@@ -1367,17 +1367,16 @@
       <c r="AL10" s="30"/>
     </row>
     <row r="11" spans="1:40" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
-      <c r="I11" s="20"/>
       <c r="J11" s="16"/>
       <c r="K11" s="16"/>
       <c r="L11" s="16"/>
@@ -1424,8 +1423,7 @@
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="19"/>
+      <c r="I12" s="20"/>
       <c r="M12" s="17"/>
       <c r="N12" s="17"/>
       <c r="O12" s="17"/>
@@ -1469,7 +1467,7 @@
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
+      <c r="J13" s="19"/>
       <c r="K13" s="19"/>
       <c r="L13" s="19"/>
       <c r="M13" s="17"/>
@@ -1503,16 +1501,12 @@
       <c r="A14" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
       <c r="G14" s="16"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
       <c r="L14" s="17"/>
       <c r="M14" s="17"/>
       <c r="N14" s="17"/>
@@ -1555,10 +1549,10 @@
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
       <c r="L15" s="17"/>
       <c r="M15" s="17"/>
       <c r="N15" s="17"/>
@@ -1630,11 +1624,11 @@
       <c r="AL16" s="30"/>
     </row>
     <row r="17" spans="1:38" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
@@ -1764,11 +1758,11 @@
       <c r="AL19" s="30"/>
     </row>
     <row r="20" spans="1:38" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
@@ -1898,11 +1892,11 @@
       <c r="AL22" s="30"/>
     </row>
     <row r="23" spans="1:38" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
@@ -2216,11 +2210,11 @@
       <c r="AL29" s="30"/>
     </row>
     <row r="30" spans="1:38" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="39" t="s">
+      <c r="A30" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
       <c r="D30" s="17"/>
       <c r="E30" s="17"/>
       <c r="F30" s="17"/>
@@ -2350,11 +2344,11 @@
       <c r="AL32" s="30"/>
     </row>
     <row r="33" spans="1:38" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="39" t="s">
+      <c r="A33" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
       <c r="AL33" s="30"/>
     </row>
     <row r="34" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2364,7 +2358,7 @@
       <c r="B34" s="34">
         <v>0</v>
       </c>
-      <c r="C34" s="50">
+      <c r="C34" s="42">
         <v>0</v>
       </c>
       <c r="AL34" s="30"/>
@@ -2373,16 +2367,20 @@
       <c r="A35" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="34"/>
-      <c r="C35" s="50"/>
+      <c r="B35" s="34">
+        <v>0</v>
+      </c>
+      <c r="C35" s="42">
+        <v>0</v>
+      </c>
       <c r="AL35" s="30"/>
     </row>
     <row r="36" spans="1:38" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="39" t="s">
+      <c r="A36" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="39"/>
-      <c r="C36" s="39"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
       <c r="D36" s="17"/>
       <c r="E36" s="17"/>
       <c r="F36" s="17"/>
@@ -2429,7 +2427,7 @@
       <c r="C37" s="12">
         <v>100</v>
       </c>
-      <c r="D37" s="49"/>
+      <c r="D37" s="41"/>
       <c r="E37" s="31"/>
       <c r="F37" s="31"/>
       <c r="G37" s="31"/>
@@ -2732,6 +2730,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="AD2:AL2"/>
+    <mergeCell ref="D2:AC2"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A6:C6"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="A2:C3"/>
     <mergeCell ref="A30:C30"/>
@@ -2741,11 +2744,6 @@
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="AD2:AL2"/>
-    <mergeCell ref="D2:AC2"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A6:C6"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
